--- a/ApolloQA/Data/RatingManual/GA/VA00073.VehicleAgeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00073.VehicleAgeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00073.VehicleAgeFactors" sheetId="1" r:id="R74a1ca136c3449a4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00073.VehicleAgeFactors" sheetId="1" r:id="R9f5cfa44c261428c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,27 +12,45 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
+        <x:v>Fleet Size Lower Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fleet Size Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>Vehicle Age Lower Bound</x:v>
       </x:c>
       <x:c t="str">
         <x:v>Vehicle Age Upper Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Vehicle Age Factor</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0000</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>Fleet Size_Vehicle Age Factor</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>1</x:v>
       </x:c>
@@ -40,10 +58,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9417</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>2</x:v>
       </x:c>
@@ -51,10 +75,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8887</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>3</x:v>
       </x:c>
@@ -62,10 +92,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8406</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>4</x:v>
       </x:c>
@@ -73,10 +109,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7968</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>5</x:v>
       </x:c>
@@ -84,10 +126,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7569</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>6</x:v>
       </x:c>
@@ -95,10 +143,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7205</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>7</x:v>
       </x:c>
@@ -106,10 +160,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6874</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>8</x:v>
       </x:c>
@@ -117,10 +177,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6573</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>9</x:v>
       </x:c>
@@ -128,32 +194,50 @@
         <x:v>9</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.6298</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.6048</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.5821</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>12</x:v>
       </x:c>
@@ -161,10 +245,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5614</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>13</x:v>
       </x:c>
@@ -172,10 +262,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5426</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>14</x:v>
       </x:c>
@@ -183,10 +279,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5256</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>15</x:v>
       </x:c>
@@ -194,10 +296,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>16</x:v>
       </x:c>
@@ -205,10 +313,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>17</x:v>
       </x:c>
@@ -216,10 +330,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>18</x:v>
       </x:c>
@@ -227,10 +347,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>19</x:v>
       </x:c>
@@ -238,10 +364,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>20</x:v>
       </x:c>
@@ -249,10 +381,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>21</x:v>
       </x:c>
@@ -260,10 +398,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>22</x:v>
       </x:c>
@@ -271,10 +415,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>23</x:v>
       </x:c>
@@ -282,10 +432,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>24</x:v>
       </x:c>
@@ -293,10 +449,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>25</x:v>
       </x:c>
@@ -304,10 +466,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>26</x:v>
       </x:c>
@@ -315,10 +483,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>27</x:v>
       </x:c>
@@ -326,10 +500,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>28</x:v>
       </x:c>
@@ -337,10 +517,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>29</x:v>
       </x:c>
@@ -348,10 +534,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>30</x:v>
       </x:c>
@@ -359,10 +551,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
       <x:c t="str">
         <x:v>31</x:v>
       </x:c>
@@ -370,7 +568,415 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5103</x:v>
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0416</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0847</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1298</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1766</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2255</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2763</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3294</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.3845</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.4420</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5020</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.5642</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.6292</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.6966</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.7671</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.8406</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9168</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9964</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.0794</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.1659</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.2558</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.3491</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.4468</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.5484</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
